--- a/BalanceSheet/ZTS_bal.xlsx
+++ b/BalanceSheet/ZTS_bal.xlsx
@@ -486,19 +486,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-52000000.0</v>
+        <v>1628000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-61000000.0</v>
+        <v>1626000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-136000000.0</v>
+        <v>1584000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-97000000.0</v>
+        <v>1481000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>1410000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1439000000.0</v>
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>98000000.0</v>
+        <v>457000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>12000000.0</v>
+        <v>357000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>72000000.0</v>
+        <v>335000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>265000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>18000000.0</v>
+        <v>301000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>284000000.0</v>
@@ -3166,19 +3166,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-22000000.0</v>
+        <v>284000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>313000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-29000000.0</v>
+        <v>307000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>333000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>346000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>473000000.0</v>
